--- a/Assets/Scripts/System/Tutorial/TutorialDB.xlsx
+++ b/Assets/Scripts/System/Tutorial/TutorialDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szun8/Documents/Develop/dragon-and-test/Assets/Scripts/System/Tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B52BD1E-ACA1-7A4F-8143-C88E470A2FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E4A5D8-7BD5-1142-AE5D-0CD9BCCEB07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>eventOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,23 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tab키를 눌러 스킬의 위치를 바꿀 수 있어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab키로 스킬 위치를 바꾸고 소환될 참새에게 사용해봐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 모든 훈련은 끝났어!
-왼쪽의 출구로 나가도 돼.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용과 시험에 합격하길 바라.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sequence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,9 +400,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>소환된 참새에게 스킬을 사용해봐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얻은 스킬은 Tab키를 눌러 위치를 바꿀 수 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>매도 공격을 해.
-매의 공격을 피하려면,
-구르기 키를 눌러 공격을 회피하면 돼.</t>
+구르기 키를 누르면 무적이 돼서 공격을 회피할 수 있어.
+한 번 구르기를 해보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응 좋아. 이제 공격과 구르기를 사용해 매를 잡아보자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 모든 훈련은 끝났어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용과 시험에 합격하길 바라.
+왼쪽의 출구로 나가도 돼.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2825EA14-B14C-3842-BF84-4D0E376FD83F}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19"/>
@@ -893,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="40">
@@ -966,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>1</v>
@@ -980,13 +984,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60">
+    <row r="8" spans="1:4" ht="20">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -994,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>1</v>
@@ -1002,41 +1006,41 @@
     </row>
     <row r="9" spans="1:4" ht="60">
       <c r="A9" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40">
+    <row r="10" spans="1:4" ht="60">
       <c r="A10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="D10" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D11" s="3" t="b">
         <v>0</v>
@@ -1049,36 +1053,36 @@
       <c r="B12" s="3">
         <v>3</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
+      <c r="C12" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13" s="3">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40">
       <c r="A14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D14" s="3" t="b">
         <v>0</v>
@@ -1086,27 +1090,27 @@
     </row>
     <row r="15" spans="1:4" ht="40">
       <c r="A15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60">
+    <row r="16" spans="1:4" ht="40">
       <c r="A16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>12</v>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D16" s="3" t="b">
         <v>0</v>
@@ -1114,69 +1118,69 @@
     </row>
     <row r="17" spans="1:4" ht="60">
       <c r="A17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60">
       <c r="A18" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3">
         <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60">
+    <row r="19" spans="1:4" ht="40">
       <c r="A19" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="3">
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60">
+      <c r="A20" s="3">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="40">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="40">
+      <c r="A21" s="3">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D20" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20">
-      <c r="A21" s="3">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D21" s="3" t="b">
         <v>0</v>
@@ -1184,27 +1188,27 @@
     </row>
     <row r="22" spans="1:4" ht="20">
       <c r="A22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" s="3">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20">
       <c r="A23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" s="3">
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3" t="b">
         <v>1</v>
@@ -1212,57 +1216,71 @@
     </row>
     <row r="24" spans="1:4" ht="20">
       <c r="A24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" s="3">
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20">
       <c r="A25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" s="3">
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D25" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="40">
+    <row r="26" spans="1:4" ht="20">
       <c r="A26" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20">
       <c r="A27" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D27" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="40">
+      <c r="A28" s="3">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Scripts/System/Tutorial/TutorialDB.xlsx
+++ b/Assets/Scripts/System/Tutorial/TutorialDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szun8/Documents/Develop/dragon-and-test/Assets/Scripts/System/Tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E4A5D8-7BD5-1142-AE5D-0CD9BCCEB07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD08168-15B1-2445-84DC-05EB2C4BDE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
   </bookViews>
@@ -122,18 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마지막으로 진짜 스킬을 사용해보자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 스킬을 하나 지급해 줄게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q키를 누르면 스킬을 사용할 수 있어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sequence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,14 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소환된 참새에게 스킬을 사용해봐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얻은 스킬은 Tab키를 눌러 위치를 바꿀 수 있어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매도 공격을 해.
 구르기 키를 누르면 무적이 돼서 공격을 회피할 수 있어.
 한 번 구르기를 해보자</t>
@@ -422,8 +402,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>용과 시험에 합격하길 바라.
-왼쪽의 출구로 나가도 돼.</t>
+    <t>이제 스킬을 사용해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출구로 나가도 돼.
+용과 시험에 합격하길 바라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 JunButterfly 스킬을 지급해 줄게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q나 E키를 누르면 스킬을 사용할 수 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 스킬을 사용해서 참새를 처치해봐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 얻은 스킬을 E키로 옮기고 싶으면 Tab키를 눌러봐.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,16 +877,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2825EA14-B14C-3842-BF84-4D0E376FD83F}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="61.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="3" customWidth="1"/>
     <col min="5" max="16384" width="11.5703125" style="3"/>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="40">
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3" t="b">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3" t="b">
         <v>1</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60">
+    <row r="17" spans="1:8" ht="60">
       <c r="A17" s="3">
         <v>5</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60">
+    <row r="18" spans="1:8" ht="60">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="40">
+    <row r="19" spans="1:8" ht="40">
       <c r="A19" s="3">
         <v>7</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60">
+    <row r="20" spans="1:8" ht="60">
       <c r="A20" s="3">
         <v>8</v>
       </c>
@@ -1171,8 +1171,9 @@
       <c r="D20" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="40">
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" ht="40">
       <c r="A21" s="3">
         <v>9</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20">
+    <row r="22" spans="1:8" ht="20">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -1194,13 +1195,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D22" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20">
+    <row r="23" spans="1:8" ht="20">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -1208,13 +1209,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20">
+    <row r="24" spans="1:8" ht="20">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -1222,13 +1223,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20">
+    <row r="25" spans="1:8" ht="20">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -1236,13 +1237,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20">
+    <row r="26" spans="1:8" ht="20">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -1250,13 +1251,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20">
+    <row r="27" spans="1:8" ht="20">
       <c r="A27" s="3">
         <v>6</v>
       </c>
@@ -1264,13 +1265,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D27" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="40">
+    <row r="28" spans="1:8" ht="40">
       <c r="A28" s="3">
         <v>7</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D28" s="3" t="b">
         <v>0</v>
